--- a/eden/data/weatherspark.xlsx
+++ b/eden/data/weatherspark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kastner/Documents/GitHub/eden/eden/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3C8A366-4AB1-8247-8D0E-7A67317A9CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24DA6E5-3E06-8C4E-8755-56F98681D897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="23100" windowWidth="28040" windowHeight="17440" xr2:uid="{8A1A80FC-AE59-E049-9A9B-922766622116}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>https://weatherspark.com/y/17172/Average-Weather-in-Jonesborough-Tennessee-United-States-Year-Round</t>
   </si>
@@ -60,14 +60,169 @@
   </si>
   <si>
     <t>https://weatherspark.com/y/17173/Average-Weather-in-Kingsport-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17160/Average-Weather-in-Bristol-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>Erwin</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17165/Average-Weather-in-Erwin-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Banner Hill</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17156/Average-Weather-in-Banner-Hill-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Asheville</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17114/Average-Weather-in-Asheville-North-Carolina-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Elizabethton</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17164/Average-Weather-in-Elizabethton-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Greeneville</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17169/Average-Weather-in-Greeneville-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Church Hill</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17162/Average-Weather-in-Church-Hill-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/15141/Average-Weather-in-Spencer-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Crossville</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/15112/Average-Weather-in-Crossville-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Cookeville</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/15151/Average-Weather-in-Cookeville-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/14689/Average-Weather-in-Portland-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Muggy</t>
+  </si>
+  <si>
+    <t>Morristown</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/16337/Average-Weather-in-Morristown-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Mountain City</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17961/Average-Weather-in-Mountain-City-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Blountville</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17158/Average-Weather-in-Blountville-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Sneedville</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/16342/Average-Weather-in-Sneedville-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Oak Grove</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17177/Average-Weather-in-Oak-Grove-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Gatlinburg</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/16309/Average-Weather-in-Gatlinburg-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17179/Average-Weather-in-Roan-Mountain-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/15110/Average-Weather-in-Chattanooga-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Signal mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roan mountain </t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/15136/Average-Weather-in-Signal-Mountain-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Lone oak</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/15126/Average-Weather-in-Lone-Oak-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Maryville</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/16311/Average-Weather-in-Maryville-Tennessee-United-States-Year-Round</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,8 +250,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,50 +567,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1596DBD9-0819-B740-9280-0EB12AE5254B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B7">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B19">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>88</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>84</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>79</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>89</v>
+      </c>
+      <c r="C24">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>87</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>85</v>
+      </c>
+      <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>88</v>
+      </c>
+      <c r="C27">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
+    <sortCondition ref="B1:B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/eden/data/weatherspark.xlsx
+++ b/eden/data/weatherspark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kastner/Documents/GitHub/eden/eden/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24DA6E5-3E06-8C4E-8755-56F98681D897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C522DF-2D1B-A44C-899B-30231B175A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="23100" windowWidth="28040" windowHeight="17440" xr2:uid="{8A1A80FC-AE59-E049-9A9B-922766622116}"/>
+    <workbookView xWindow="-21600" yWindow="2280" windowWidth="21600" windowHeight="17500" xr2:uid="{8A1A80FC-AE59-E049-9A9B-922766622116}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>https://weatherspark.com/y/17172/Average-Weather-in-Jonesborough-Tennessee-United-States-Year-Round</t>
   </si>
@@ -207,6 +207,36 @@
   </si>
   <si>
     <t>https://weatherspark.com/y/16311/Average-Weather-in-Maryville-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Sevierville</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/16314/Average-Weather-in-Sevierville-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Farragut</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/15713/Average-Weather-in-Farragut-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/14687/Average-Weather-in-Nashville-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Bluff City</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/17159/Average-Weather-in-Bluff-City-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Celina</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/15150/Average-Weather-in-Celina-Tennessee-United-States-Year-Round</t>
   </si>
 </sst>
 </file>
@@ -567,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1596DBD9-0819-B740-9280-0EB12AE5254B}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,58 +629,58 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -662,15 +692,15 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -679,46 +709,46 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>28</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>84</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>84</v>
@@ -727,15 +757,15 @@
         <v>29</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>84</v>
@@ -744,248 +774,248 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>84</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>85</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>28</v>
       </c>
       <c r="D15">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1007,41 +1037,126 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>88</v>
       </c>
       <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>88</v>
+      </c>
+      <c r="C28">
         <v>31</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>81</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31">
+        <v>89</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
-    <sortCondition ref="B1:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E32">
+    <sortCondition ref="B1:B32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/eden/data/weatherspark.xlsx
+++ b/eden/data/weatherspark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kastner/Documents/GitHub/eden/eden/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C522DF-2D1B-A44C-899B-30231B175A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4DBCBE-5CEA-7F47-8600-CF61B07EBDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2280" windowWidth="21600" windowHeight="17500" xr2:uid="{8A1A80FC-AE59-E049-9A9B-922766622116}"/>
+    <workbookView xWindow="-21600" yWindow="1200" windowWidth="21600" windowHeight="17500" xr2:uid="{8A1A80FC-AE59-E049-9A9B-922766622116}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>https://weatherspark.com/y/17172/Average-Weather-in-Jonesborough-Tennessee-United-States-Year-Round</t>
   </si>
@@ -167,12 +167,6 @@
     <t>https://weatherspark.com/y/16342/Average-Weather-in-Sneedville-Tennessee-United-States-Year-Round</t>
   </si>
   <si>
-    <t>Oak Grove</t>
-  </si>
-  <si>
-    <t>https://weatherspark.com/y/17177/Average-Weather-in-Oak-Grove-Tennessee-United-States-Year-Round</t>
-  </si>
-  <si>
     <t>Gatlinburg</t>
   </si>
   <si>
@@ -237,6 +231,15 @@
   </si>
   <si>
     <t>https://weatherspark.com/y/15150/Average-Weather-in-Celina-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Monteagle</t>
+  </si>
+  <si>
+    <t>https://weatherspark.com/y/15129/Average-Weather-in-Monteagle-Tennessee-United-States-Year-Round</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -597,20 +600,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1596DBD9-0819-B740-9280-0EB12AE5254B}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="4" max="5" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -624,12 +627,15 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>79</v>
@@ -640,11 +646,14 @@
       <c r="D2">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>7.3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -657,11 +666,14 @@
       <c r="D3">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>7.3</v>
+      </c>
+      <c r="F3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -674,11 +686,14 @@
       <c r="D4">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>7.5</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -691,11 +706,14 @@
       <c r="D5">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>7.6</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -708,11 +726,14 @@
       <c r="D6">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>7.6</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -725,11 +746,14 @@
       <c r="D7">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>7.6</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -742,11 +766,14 @@
       <c r="D8">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>7.5</v>
+      </c>
+      <c r="F8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -759,11 +786,14 @@
       <c r="D9">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>7.4</v>
+      </c>
+      <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -776,11 +806,14 @@
       <c r="D10">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>7.5</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -793,11 +826,14 @@
       <c r="D11">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>7.2</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -810,13 +846,16 @@
       <c r="D12">
         <v>64</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>7.4</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>84</v>
@@ -827,11 +866,14 @@
       <c r="D13">
         <v>70</v>
       </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>7.6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -844,11 +886,14 @@
       <c r="D14">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>7.5</v>
+      </c>
+      <c r="F14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -861,13 +906,16 @@
       <c r="D15">
         <v>79</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>7.4</v>
+      </c>
+      <c r="F15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>85</v>
@@ -876,15 +924,18 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>7.4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>85</v>
@@ -893,15 +944,18 @@
         <v>28</v>
       </c>
       <c r="D17">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>7.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>85</v>
@@ -910,13 +964,16 @@
         <v>28</v>
       </c>
       <c r="D18">
-        <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="E18">
+        <v>7.4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -929,11 +986,14 @@
       <c r="D19">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>7.4</v>
+      </c>
+      <c r="F19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -946,11 +1006,14 @@
       <c r="D20">
         <v>71</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>7.5</v>
+      </c>
+      <c r="F20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -963,11 +1026,14 @@
       <c r="D21">
         <v>76</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>7.4</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -980,11 +1046,14 @@
       <c r="D22">
         <v>75</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>7.4</v>
+      </c>
+      <c r="F22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -997,11 +1066,14 @@
       <c r="D23">
         <v>81</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>7.4</v>
+      </c>
+      <c r="F23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1014,13 +1086,16 @@
       <c r="D24">
         <v>79</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>7.3</v>
+      </c>
+      <c r="F24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>87</v>
@@ -1031,13 +1106,16 @@
       <c r="D25">
         <v>83</v>
       </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>7.4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>87</v>
@@ -1048,11 +1126,14 @@
       <c r="D26">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>7.4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1065,13 +1146,16 @@
       <c r="D27">
         <v>86</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>7.4</v>
+      </c>
+      <c r="F27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>88</v>
@@ -1082,13 +1166,16 @@
       <c r="D28">
         <v>81</v>
       </c>
-      <c r="E28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>7.4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>88</v>
@@ -1099,13 +1186,16 @@
       <c r="D29">
         <v>82</v>
       </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>7.3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>88</v>
@@ -1116,13 +1206,16 @@
       <c r="D30">
         <v>84</v>
       </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>7.4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>89</v>
@@ -1133,13 +1226,16 @@
       <c r="D31">
         <v>85</v>
       </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>7.5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>90</v>
@@ -1150,13 +1246,16 @@
       <c r="D32">
         <v>79</v>
       </c>
-      <c r="E32" t="s">
-        <v>62</v>
+      <c r="E32">
+        <v>7.3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E32">
-    <sortCondition ref="B1:B32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
+    <sortCondition ref="B1:B34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
